--- a/Billing System Database Outline.xlsx
+++ b/Billing System Database Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\billingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB2451-0C26-4A70-AAD8-7E2AA0A0BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D905EA-0357-4985-88E3-835FC9D74422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F9FED92-397F-46FE-8F7B-B7FE48B0B327}"/>
   </bookViews>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F082517-7B57-4177-B7EB-260C93B7E4FB}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,25 +629,25 @@
       <c r="J5" t="s">
         <v>40</v>
       </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Billing System Database Outline.xlsx
+++ b/Billing System Database Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\billingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D905EA-0357-4985-88E3-835FC9D74422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F0DA5-4C3C-4361-9B7F-D2BDFD914A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F9FED92-397F-46FE-8F7B-B7FE48B0B327}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>tenant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
@@ -157,6 +154,33 @@
   </si>
   <si>
     <t>MeterImageWater</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>TotalIncome</t>
+  </si>
+  <si>
+    <t>MoveInDate</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>NumberOfMembers</t>
+  </si>
+  <si>
+    <t>LeaseInDuration</t>
+  </si>
+  <si>
+    <t>ApartmentUnit</t>
+  </si>
+  <si>
+    <t>StatusTenant</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -542,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F082517-7B57-4177-B7EB-260C93B7E4FB}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -566,156 +590,177 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
